--- a/Documentation/Working_Documents/Spruce_Joystick_BOM.xlsx
+++ b/Documentation/Working_Documents/Spruce_Joystick_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 23-05 ATP Joysticks/1B - Joystick - Mini/Spruce-Mini-Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{B97C1733-4601-4F28-BE0A-18E4DA1D18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946A07F3-D7A2-4F1F-BB04-2D3D14FBE73B}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{B97C1733-4601-4F28-BE0A-18E4DA1D18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F5409A0-24B0-40D4-B000-2EE580C988C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -258,8 +258,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
@@ -525,7 +525,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,34 +537,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -858,31 +858,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -908,11 +908,11 @@
       </c>
       <c r="I2" s="24">
         <f>SUM(I5:I12,I15:I18)</f>
-        <v>26.138999999999996</v>
+        <v>33.18</v>
       </c>
       <c r="J2" s="5">
         <f>SUM(J5:J13,I15:I18)</f>
-        <v>44.939999999999991</v>
+        <v>33.18</v>
       </c>
       <c r="K2" s="16">
         <f>SUM(H15:H18)/60</f>
@@ -923,13 +923,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -964,43 +964,43 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>20.89</v>
-      </c>
-      <c r="G5" s="21">
-        <f>IF(E5&gt;0,ROUNDUP(D5/E5,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="23">
-        <f>IF(E5&gt;0,F5/E5,0)</f>
-        <v>2.089</v>
-      </c>
-      <c r="I5" s="23">
-        <f>H5*D5</f>
-        <v>2.089</v>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" ref="G5" si="0">IF(E5&gt;0,ROUNDUP(D5/E5,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5" si="1">IF(E5&gt;0,F5/E5,0)</f>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" ref="I5" si="2">H5*D5</f>
+        <v>9.1300000000000008</v>
       </c>
       <c r="J5" s="22">
-        <f>G5*F5</f>
-        <v>20.89</v>
+        <f t="shared" ref="J5" si="3">G5*F5</f>
+        <v>9.1300000000000008</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>57</v>
       </c>
@@ -1125,26 +1125,26 @@
         <v>0.6</v>
       </c>
       <c r="G9" s="29">
-        <f t="shared" ref="G9" si="0">IF(E9&gt;0,ROUNDUP(D9/E9,0),0)</f>
+        <f t="shared" ref="G9" si="4">IF(E9&gt;0,ROUNDUP(D9/E9,0),0)</f>
         <v>4</v>
       </c>
       <c r="H9" s="23">
-        <f t="shared" ref="H9" si="1">IF(E9&gt;0,F9/E9,0)</f>
+        <f t="shared" ref="H9" si="5">IF(E9&gt;0,F9/E9,0)</f>
         <v>0.6</v>
       </c>
       <c r="I9" s="23">
-        <f t="shared" ref="I9" si="2">H9*D9</f>
+        <f t="shared" ref="I9" si="6">H9*D9</f>
         <v>2.4</v>
       </c>
       <c r="J9" s="22">
-        <f t="shared" ref="J9:J11" si="3">G9*F9</f>
+        <f t="shared" ref="J9:J11" si="7">G9*F9</f>
         <v>2.4</v>
       </c>
       <c r="K9" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>61</v>
       </c>
@@ -1161,26 +1161,26 @@
         <v>0.27</v>
       </c>
       <c r="G10" s="31">
-        <f t="shared" ref="G10:G11" si="4">IF(E10&gt;0,ROUNDUP(D10/E10,0),0)</f>
+        <f t="shared" ref="G10:G11" si="8">IF(E10&gt;0,ROUNDUP(D10/E10,0),0)</f>
         <v>2</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" ref="H10:H11" si="5">IF(E10&gt;0,F10/E10,0)</f>
+        <f t="shared" ref="H10:H11" si="9">IF(E10&gt;0,F10/E10,0)</f>
         <v>0.27</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" ref="I10:I11" si="6">H10*D10</f>
+        <f t="shared" ref="I10:I11" si="10">H10*D10</f>
         <v>0.54</v>
       </c>
       <c r="J10" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.54</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -1197,31 +1197,31 @@
         <v>8</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J11" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="G12" s="21"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="I13" s="15"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>64</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>82</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16" si="7">F16*D16</f>
+        <f t="shared" ref="H16" si="11">F16*D16</f>
         <v>82</v>
       </c>
       <c r="I16" s="14">
@@ -1312,14 +1312,14 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E17" s="28"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>24</v>
       </c>
@@ -1337,38 +1337,38 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>60</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0.15</v>
       </c>
       <c r="G30" s="31">
-        <f t="shared" ref="G30:G32" si="8">IF(E30&gt;0,ROUNDUP(D30/E30,0),0)</f>
+        <f t="shared" ref="G30:G32" si="12">IF(E30&gt;0,ROUNDUP(D30/E30,0),0)</f>
         <v>1</v>
       </c>
       <c r="H30" s="14">
@@ -1493,7 +1493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -1505,43 +1505,43 @@
       <c r="I31" s="14"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="G32" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H32" s="14">
-        <f t="shared" ref="H32:H33" si="9">IF(E32&gt;0,F32/E32,0)</f>
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" ref="I32:I33" si="10">H32*D32</f>
-        <v>9.1300000000000008</v>
+        <v>10</v>
+      </c>
+      <c r="F32" s="9">
+        <v>20.89</v>
+      </c>
+      <c r="G32" s="21">
+        <f>IF(E32&gt;0,ROUNDUP(D32/E32,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="23">
+        <f>IF(E32&gt;0,F32/E32,0)</f>
+        <v>2.089</v>
+      </c>
+      <c r="I32" s="23">
+        <f>H32*D32</f>
+        <v>2.089</v>
       </c>
       <c r="J32" s="22">
-        <f t="shared" ref="J32" si="11">G32*F32</f>
-        <v>9.1300000000000008</v>
+        <f>G32*F32</f>
+        <v>20.89</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -1561,18 +1561,18 @@
         <v>1</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H32:H33" si="13">IF(E33&gt;0,F33/E33,0)</f>
         <v>8.6300000000000008</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I32:I33" si="14">H33*D33</f>
         <v>8.6300000000000008</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>58</v>
       </c>
@@ -1643,6 +1643,14 @@
       <c r="K35" s="8" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F36" s="9"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1654,16 +1662,16 @@
   <hyperlinks>
     <hyperlink ref="K29" r:id="rId1" xr:uid="{28C384D9-3092-4894-99A6-3A08F0266E61}"/>
     <hyperlink ref="K9" r:id="rId2" xr:uid="{24F7BAAE-E59B-4ED5-A1CD-50F90C951085}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{149EAE72-EE50-40F8-8D53-3054C66B3F0A}"/>
-    <hyperlink ref="K8" r:id="rId4" xr:uid="{14CF58C7-290C-4B13-ABF3-8C043918B96D}"/>
-    <hyperlink ref="K30" r:id="rId5" xr:uid="{3A99E3B6-C86E-49FB-A5B2-A920C0568C23}"/>
-    <hyperlink ref="K10" r:id="rId6" xr:uid="{A683A31C-5A07-4296-B3B5-61CA84E9A955}"/>
-    <hyperlink ref="K6" r:id="rId7" xr:uid="{BB0550B3-43EC-40AD-ADB9-E9198A471A74}"/>
-    <hyperlink ref="K32" r:id="rId8" xr:uid="{4638B954-DA88-4A87-9976-64BDBCA45A13}"/>
-    <hyperlink ref="K33" r:id="rId9" xr:uid="{461A9D15-FDE9-4322-B294-398DD1CB94EC}"/>
-    <hyperlink ref="K7" r:id="rId10" xr:uid="{ADE1B758-741A-4579-9D64-848FBC8103EE}"/>
-    <hyperlink ref="K34" r:id="rId11" xr:uid="{077D6F57-CE43-4517-9725-BAC63E5846CB}"/>
-    <hyperlink ref="K35" r:id="rId12" xr:uid="{742A2295-AAD6-42F4-B819-8BDFE53DA400}"/>
+    <hyperlink ref="K8" r:id="rId3" xr:uid="{14CF58C7-290C-4B13-ABF3-8C043918B96D}"/>
+    <hyperlink ref="K30" r:id="rId4" xr:uid="{3A99E3B6-C86E-49FB-A5B2-A920C0568C23}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{A683A31C-5A07-4296-B3B5-61CA84E9A955}"/>
+    <hyperlink ref="K6" r:id="rId6" xr:uid="{BB0550B3-43EC-40AD-ADB9-E9198A471A74}"/>
+    <hyperlink ref="K33" r:id="rId7" xr:uid="{461A9D15-FDE9-4322-B294-398DD1CB94EC}"/>
+    <hyperlink ref="K7" r:id="rId8" xr:uid="{ADE1B758-741A-4579-9D64-848FBC8103EE}"/>
+    <hyperlink ref="K34" r:id="rId9" xr:uid="{077D6F57-CE43-4517-9725-BAC63E5846CB}"/>
+    <hyperlink ref="K35" r:id="rId10" xr:uid="{742A2295-AAD6-42F4-B819-8BDFE53DA400}"/>
+    <hyperlink ref="K5" r:id="rId11" xr:uid="{BCCBB162-4FA2-4E4A-8F05-C489F6AC5F13}"/>
+    <hyperlink ref="K32" r:id="rId12" xr:uid="{1B4DC1CD-414D-427B-A480-F19813C10CE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -1671,26 +1679,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1933,10 +1921,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C86E4E0D-DC31-4848-BC7A-F0ECE7F7EB00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1953,20 +1972,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C86E4E0D-DC31-4848-BC7A-F0ECE7F7EB00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Working_Documents/Spruce_Joystick_BOM.xlsx
+++ b/Documentation/Working_Documents/Spruce_Joystick_BOM.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 23-05 ATP Joysticks/1B - Joystick - Mini/Spruce-Mini-Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{B97C1733-4601-4F28-BE0A-18E4DA1D18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F5409A0-24B0-40D4-B000-2EE580C988C2}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{B97C1733-4601-4F28-BE0A-18E4DA1D18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BAEAFF-68E9-447F-9DCE-934AD1E75A41}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc146626247" localSheetId="0">BOM!$A$18</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -108,12 +111,6 @@
   </si>
   <si>
     <t>PLA</t>
-  </si>
-  <si>
-    <t>Tools for Assembly</t>
-  </si>
-  <si>
-    <t>Alternatives (if there are other sources for some parts link them below)</t>
   </si>
   <si>
     <t>Part and description</t>
@@ -205,24 +202,6 @@
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/tensility-international-corp/10-00344/2350247 </t>
   </si>
   <si>
-    <t>Soldering Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solder </t>
-  </si>
-  <si>
-    <t>#3 Philips Screwdriver</t>
-  </si>
-  <si>
-    <t>Flush cutters</t>
-  </si>
-  <si>
-    <t>Wire strippers</t>
-  </si>
-  <si>
-    <t>Multimeter with continuity testing mode</t>
-  </si>
-  <si>
     <t>#4 Metal Screw, 3/8″ Length (if building more than two, link below)</t>
   </si>
   <si>
@@ -251,6 +230,9 @@
   </si>
   <si>
     <t>Last Updated: 2023-Sept-25</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
   </si>
 </sst>
 </file>
@@ -258,8 +240,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
@@ -525,54 +507,52 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -858,33 +838,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:K36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="60.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>0</v>
@@ -899,43 +879,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I2" s="24">
-        <f>SUM(I5:I12,I15:I18)</f>
+        <f>SUM(I5:I12,I15:I17)</f>
         <v>33.18</v>
       </c>
       <c r="J2" s="5">
-        <f>SUM(J5:J13,I15:I18)</f>
+        <f>SUM(J5:J13,I15:I17)</f>
         <v>33.18</v>
       </c>
       <c r="K2" s="16">
-        <f>SUM(H15:H18)/60</f>
+        <f>SUM(H15:H17)/60</f>
         <v>3.1333333333333333</v>
       </c>
       <c r="L2" s="6">
-        <f>SUM(E15:E18)</f>
+        <f>SUM(E15:E17)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
@@ -964,12 +944,12 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -997,15 +977,15 @@
         <v>9.1300000000000008</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1033,15 +1013,15 @@
         <v>7.29</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1069,15 +1049,15 @@
         <v>4.62</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1105,15 +1085,15 @@
         <v>0.5</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1141,15 +1121,15 @@
         <v>2.4</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1177,15 +1157,15 @@
         <v>0.54</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1214,14 +1194,14 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="18"/>
       <c r="G12" s="21"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1215,7 @@
       <c r="I13" s="15"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1262,9 +1242,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1287,9 +1267,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1312,366 +1292,313 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="28"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20" s="27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G20" s="21">
+        <f>IF(E20&gt;0,ROUNDUP(D20/E20,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <f>IF(E20&gt;0,F20/E20,0)</f>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="I20" s="14">
+        <f>H20*D20</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="J20" s="22">
+        <f>G20*F20</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" ref="G21" si="12">IF(E21&gt;0,ROUNDUP(D21/E21,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <f>IF(E21&gt;0,F21/E21,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I21" s="14">
+        <f>H21*D21</f>
+        <v>0.15</v>
+      </c>
+      <c r="J21" s="22">
+        <f>G21*F21</f>
+        <v>0.15</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9">
+        <v>20.89</v>
+      </c>
+      <c r="G23" s="21">
+        <f>IF(E23&gt;0,ROUNDUP(D23/E23,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="23">
+        <f>IF(E23&gt;0,F23/E23,0)</f>
+        <v>2.089</v>
+      </c>
+      <c r="I23" s="23">
+        <f>H23*D23</f>
+        <v>2.089</v>
+      </c>
+      <c r="J23" s="22">
+        <f>G23*F23</f>
+        <v>20.89</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" ref="H24" si="13">IF(E24&gt;0,F24/E24,0)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" ref="I24" si="14">H24*D24</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29" s="27">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G29" s="21">
-        <f>IF(E29&gt;0,ROUNDUP(D29/E29,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="14">
-        <f>IF(E29&gt;0,F29/E29,0)</f>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="I29" s="14">
-        <f>H29*D29</f>
-        <v>0.74400000000000011</v>
-      </c>
-      <c r="J29" s="22">
-        <f>G29*F29</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="27">
-        <v>0.15</v>
-      </c>
-      <c r="G30" s="31">
-        <f t="shared" ref="G30:G32" si="12">IF(E30&gt;0,ROUNDUP(D30/E30,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="14">
-        <f>IF(E30&gt;0,F30/E30,0)</f>
-        <v>0.15</v>
-      </c>
-      <c r="I30" s="14">
-        <f>H30*D30</f>
-        <v>0.15</v>
-      </c>
-      <c r="J30" s="22">
-        <f>G30*F30</f>
-        <v>0.15</v>
-      </c>
-      <c r="K30" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G25" s="31">
+        <f>IF(E25&gt;0,ROUNDUP(D25/E25,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <f>IF(E25&gt;0,F25/E25,0)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I25" s="14">
+        <f>H25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <f>G25*F25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32" s="9">
-        <v>20.89</v>
-      </c>
-      <c r="G32" s="21">
-        <f>IF(E32&gt;0,ROUNDUP(D32/E32,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="23">
-        <f>IF(E32&gt;0,F32/E32,0)</f>
-        <v>2.089</v>
-      </c>
-      <c r="I32" s="23">
-        <f>H32*D32</f>
-        <v>2.089</v>
-      </c>
-      <c r="J32" s="22">
-        <f>G32*F32</f>
-        <v>20.89</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" s="14">
-        <f t="shared" ref="H32:H33" si="13">IF(E33&gt;0,F33/E33,0)</f>
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" ref="I32:I33" si="14">H33*D33</f>
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="G26" s="21">
+        <f>IF(E26&gt;0,ROUNDUP(D26/E26,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <f>IF(E26&gt;0,F26/E26,0)</f>
+        <v>0.48</v>
+      </c>
+      <c r="I26" s="14">
+        <f>H26*D26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
+        <f>G26*F26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="27">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G34" s="31">
-        <f>IF(E34&gt;0,ROUNDUP(D34/E34,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
-        <f>IF(E34&gt;0,F34/E34,0)</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I34" s="14">
-        <f>H34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="22">
-        <f>G34*F34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="32">
-        <v>0.48</v>
-      </c>
-      <c r="G35" s="21">
-        <f>IF(E35&gt;0,ROUNDUP(D35/E35,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
-        <f>IF(E35&gt;0,F35/E35,0)</f>
-        <v>0.48</v>
-      </c>
-      <c r="I35" s="14">
-        <f>H35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="22">
-        <f>G35*F35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F36" s="9"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K29" r:id="rId1" xr:uid="{28C384D9-3092-4894-99A6-3A08F0266E61}"/>
+    <hyperlink ref="K20" r:id="rId1" xr:uid="{28C384D9-3092-4894-99A6-3A08F0266E61}"/>
     <hyperlink ref="K9" r:id="rId2" xr:uid="{24F7BAAE-E59B-4ED5-A1CD-50F90C951085}"/>
     <hyperlink ref="K8" r:id="rId3" xr:uid="{14CF58C7-290C-4B13-ABF3-8C043918B96D}"/>
-    <hyperlink ref="K30" r:id="rId4" xr:uid="{3A99E3B6-C86E-49FB-A5B2-A920C0568C23}"/>
+    <hyperlink ref="K21" r:id="rId4" xr:uid="{3A99E3B6-C86E-49FB-A5B2-A920C0568C23}"/>
     <hyperlink ref="K10" r:id="rId5" xr:uid="{A683A31C-5A07-4296-B3B5-61CA84E9A955}"/>
     <hyperlink ref="K6" r:id="rId6" xr:uid="{BB0550B3-43EC-40AD-ADB9-E9198A471A74}"/>
-    <hyperlink ref="K33" r:id="rId7" xr:uid="{461A9D15-FDE9-4322-B294-398DD1CB94EC}"/>
+    <hyperlink ref="K24" r:id="rId7" xr:uid="{461A9D15-FDE9-4322-B294-398DD1CB94EC}"/>
     <hyperlink ref="K7" r:id="rId8" xr:uid="{ADE1B758-741A-4579-9D64-848FBC8103EE}"/>
-    <hyperlink ref="K34" r:id="rId9" xr:uid="{077D6F57-CE43-4517-9725-BAC63E5846CB}"/>
-    <hyperlink ref="K35" r:id="rId10" xr:uid="{742A2295-AAD6-42F4-B819-8BDFE53DA400}"/>
+    <hyperlink ref="K25" r:id="rId9" xr:uid="{077D6F57-CE43-4517-9725-BAC63E5846CB}"/>
+    <hyperlink ref="K26" r:id="rId10" xr:uid="{742A2295-AAD6-42F4-B819-8BDFE53DA400}"/>
     <hyperlink ref="K5" r:id="rId11" xr:uid="{BCCBB162-4FA2-4E4A-8F05-C489F6AC5F13}"/>
-    <hyperlink ref="K32" r:id="rId12" xr:uid="{1B4DC1CD-414D-427B-A480-F19813C10CE2}"/>
+    <hyperlink ref="K23" r:id="rId12" xr:uid="{1B4DC1CD-414D-427B-A480-F19813C10CE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -1679,6 +1606,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1921,27 +1868,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C86E4E0D-DC31-4848-BC7A-F0ECE7F7EB00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1958,23 +1904,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>